--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4974"/>
+  <dimension ref="A1:C4975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84991,6 +84991,23 @@
         </is>
       </c>
     </row>
+    <row r="4975">
+      <c r="A4975" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B4975" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C4975" t="inlineStr">
+        <is>
+          <t>1.11407296121411</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4975"/>
+  <dimension ref="A1:C4976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85008,6 +85008,23 @@
         </is>
       </c>
     </row>
+    <row r="4976">
+      <c r="A4976" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B4976" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C4976" t="inlineStr">
+        <is>
+          <t>1.134673365349999</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4976"/>
+  <dimension ref="A1:C4977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85025,6 +85025,23 @@
         </is>
       </c>
     </row>
+    <row r="4977">
+      <c r="A4977" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B4977" t="inlineStr">
+        <is>
+          <t>1755216000</t>
+        </is>
+      </c>
+      <c r="C4977" t="inlineStr">
+        <is>
+          <t>1.0866185144212361</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4977"/>
+  <dimension ref="A1:C4978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85042,6 +85042,23 @@
         </is>
       </c>
     </row>
+    <row r="4978">
+      <c r="A4978" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B4978" t="inlineStr">
+        <is>
+          <t>1755302400</t>
+        </is>
+      </c>
+      <c r="C4978" t="inlineStr">
+        <is>
+          <t>1.0811741257496554</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4978"/>
+  <dimension ref="A1:C4979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85059,6 +85059,23 @@
         </is>
       </c>
     </row>
+    <row r="4979">
+      <c r="A4979" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B4979" t="inlineStr">
+        <is>
+          <t>1755388800</t>
+        </is>
+      </c>
+      <c r="C4979" t="inlineStr">
+        <is>
+          <t>1.0820099167285653</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4979"/>
+  <dimension ref="A1:C4980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84919,7 +84919,7 @@
       </c>
       <c r="C4970" t="inlineStr">
         <is>
-          <t>1.1046013849221274</t>
+          <t>1.1045895649203914</t>
         </is>
       </c>
     </row>
@@ -84936,7 +84936,7 @@
       </c>
       <c r="C4971" t="inlineStr">
         <is>
-          <t>1.1018788910760333</t>
+          <t>1.101865171238741</t>
         </is>
       </c>
     </row>
@@ -84953,7 +84953,7 @@
       </c>
       <c r="C4972" t="inlineStr">
         <is>
-          <t>1.0896724773584416</t>
+          <t>1.1255931560494632</t>
         </is>
       </c>
     </row>
@@ -84970,7 +84970,7 @@
       </c>
       <c r="C4973" t="inlineStr">
         <is>
-          <t>1.109003153158146</t>
+          <t>1.1196621197348546</t>
         </is>
       </c>
     </row>
@@ -84987,7 +84987,7 @@
       </c>
       <c r="C4974" t="inlineStr">
         <is>
-          <t>1.105926071044671</t>
+          <t>1.1294067159336652</t>
         </is>
       </c>
     </row>
@@ -85004,7 +85004,7 @@
       </c>
       <c r="C4975" t="inlineStr">
         <is>
-          <t>1.11407296121411</t>
+          <t>1.156235819939289</t>
         </is>
       </c>
     </row>
@@ -85021,7 +85021,7 @@
       </c>
       <c r="C4976" t="inlineStr">
         <is>
-          <t>1.134673365349999</t>
+          <t>1.1089224659612904</t>
         </is>
       </c>
     </row>
@@ -85038,7 +85038,7 @@
       </c>
       <c r="C4977" t="inlineStr">
         <is>
-          <t>1.0866185144212361</t>
+          <t>1.0963211019399928</t>
         </is>
       </c>
     </row>
@@ -85055,7 +85055,7 @@
       </c>
       <c r="C4978" t="inlineStr">
         <is>
-          <t>1.0811741257496554</t>
+          <t>1.0964958432074392</t>
         </is>
       </c>
     </row>
@@ -85072,7 +85072,24 @@
       </c>
       <c r="C4979" t="inlineStr">
         <is>
-          <t>1.0820099167285653</t>
+          <t>1.0971896130428453</t>
+        </is>
+      </c>
+    </row>
+    <row r="4980">
+      <c r="A4980" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B4980" t="inlineStr">
+        <is>
+          <t>1755475200</t>
+        </is>
+      </c>
+      <c r="C4980" t="inlineStr">
+        <is>
+          <t>1.0852258171404257</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5003"/>
+  <dimension ref="A1:B5004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50437,6 +50437,14 @@
       </c>
       <c r="B5003" t="inlineStr"/>
     </row>
+    <row r="5004">
+      <c r="A5004" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B5004" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5004"/>
+  <dimension ref="A1:B5005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50445,6 +50445,14 @@
       </c>
       <c r="B5004" t="inlineStr"/>
     </row>
+    <row r="5005">
+      <c r="A5005" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B5005" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5005"/>
+  <dimension ref="A1:B5006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50453,6 +50453,14 @@
       </c>
       <c r="B5005" t="inlineStr"/>
     </row>
+    <row r="5006">
+      <c r="A5006" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B5006" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5006"/>
+  <dimension ref="A1:B5007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50461,6 +50461,14 @@
       </c>
       <c r="B5006" t="inlineStr"/>
     </row>
+    <row r="5007">
+      <c r="A5007" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B5007" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5007"/>
+  <dimension ref="A1:B4989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50288,186 +50288,42 @@
     <row r="4986">
       <c r="A4986" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
-        </is>
-      </c>
-      <c r="B4986" t="inlineStr"/>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B4986" t="n">
+        <v>1.041</v>
+      </c>
     </row>
     <row r="4987">
       <c r="A4987" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B4987" t="n">
-        <v>1.041</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="4988">
       <c r="A4988" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B4988" t="n">
-        <v>1.011</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="4989">
       <c r="A4989" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B4989" t="n">
-        <v>1.026</v>
-      </c>
-    </row>
-    <row r="4990">
-      <c r="A4990" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="B4990" t="n">
         <v>1.024</v>
       </c>
-    </row>
-    <row r="4991">
-      <c r="A4991" t="inlineStr">
-        <is>
-          <t>2025-08-29</t>
-        </is>
-      </c>
-      <c r="B4991" t="inlineStr"/>
-    </row>
-    <row r="4992">
-      <c r="A4992" t="inlineStr">
-        <is>
-          <t>2025-08-30</t>
-        </is>
-      </c>
-      <c r="B4992" t="inlineStr"/>
-    </row>
-    <row r="4993">
-      <c r="A4993" t="inlineStr">
-        <is>
-          <t>2025-08-31</t>
-        </is>
-      </c>
-      <c r="B4993" t="inlineStr"/>
-    </row>
-    <row r="4994">
-      <c r="A4994" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="B4994" t="inlineStr"/>
-    </row>
-    <row r="4995">
-      <c r="A4995" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="B4995" t="inlineStr"/>
-    </row>
-    <row r="4996">
-      <c r="A4996" t="inlineStr">
-        <is>
-          <t>2025-09-03</t>
-        </is>
-      </c>
-      <c r="B4996" t="inlineStr"/>
-    </row>
-    <row r="4997">
-      <c r="A4997" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="B4997" t="inlineStr"/>
-    </row>
-    <row r="4998">
-      <c r="A4998" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
-      <c r="B4998" t="inlineStr"/>
-    </row>
-    <row r="4999">
-      <c r="A4999" t="inlineStr">
-        <is>
-          <t>2025-09-06</t>
-        </is>
-      </c>
-      <c r="B4999" t="inlineStr"/>
-    </row>
-    <row r="5000">
-      <c r="A5000" t="inlineStr">
-        <is>
-          <t>2025-09-07</t>
-        </is>
-      </c>
-      <c r="B5000" t="inlineStr"/>
-    </row>
-    <row r="5001">
-      <c r="A5001" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-      <c r="B5001" t="inlineStr"/>
-    </row>
-    <row r="5002">
-      <c r="A5002" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-      <c r="B5002" t="inlineStr"/>
-    </row>
-    <row r="5003">
-      <c r="A5003" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-      <c r="B5003" t="inlineStr"/>
-    </row>
-    <row r="5004">
-      <c r="A5004" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-      <c r="B5004" t="inlineStr"/>
-    </row>
-    <row r="5005">
-      <c r="A5005" t="inlineStr">
-        <is>
-          <t>2025-09-12</t>
-        </is>
-      </c>
-      <c r="B5005" t="inlineStr"/>
-    </row>
-    <row r="5006">
-      <c r="A5006" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="B5006" t="inlineStr"/>
-    </row>
-    <row r="5007">
-      <c r="A5007" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="B5007" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4641"/>
+  <dimension ref="A1:B4642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46845,6 +46845,16 @@
         <v>1.041</v>
       </c>
     </row>
+    <row r="4642">
+      <c r="A4642" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B4642" t="n">
+        <v>1.045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4642"/>
+  <dimension ref="A1:B4643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46855,6 +46855,16 @@
         <v>1.045</v>
       </c>
     </row>
+    <row r="4643">
+      <c r="A4643" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B4643" t="n">
+        <v>1.048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4643"/>
+  <dimension ref="A1:B4644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46865,6 +46865,16 @@
         <v>1.048</v>
       </c>
     </row>
+    <row r="4644">
+      <c r="A4644" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B4644" t="n">
+        <v>1.055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4644"/>
+  <dimension ref="A1:B4645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46875,6 +46875,16 @@
         <v>1.055</v>
       </c>
     </row>
+    <row r="4645">
+      <c r="A4645" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B4645" t="n">
+        <v>1.045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4645"/>
+  <dimension ref="A1:B4646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46885,6 +46885,16 @@
         <v>1.045</v>
       </c>
     </row>
+    <row r="4646">
+      <c r="A4646" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B4646" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4646"/>
+  <dimension ref="A1:B4647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46895,6 +46895,16 @@
         <v>1.04</v>
       </c>
     </row>
+    <row r="4647">
+      <c r="A4647" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B4647" t="n">
+        <v>1.038</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4647"/>
+  <dimension ref="A1:B4648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46905,6 +46905,16 @@
         <v>1.038</v>
       </c>
     </row>
+    <row r="4648">
+      <c r="A4648" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B4648" t="n">
+        <v>1.016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4648"/>
+  <dimension ref="A1:B4649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46915,6 +46915,16 @@
         <v>1.016</v>
       </c>
     </row>
+    <row r="4649">
+      <c r="A4649" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B4649" t="n">
+        <v>1.011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4649"/>
+  <dimension ref="A1:B4650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46925,6 +46925,16 @@
         <v>1.011</v>
       </c>
     </row>
+    <row r="4650">
+      <c r="A4650" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B4650" t="n">
+        <v>1.013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4650"/>
+  <dimension ref="A1:B4651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46935,6 +46935,16 @@
         <v>1.013</v>
       </c>
     </row>
+    <row r="4651">
+      <c r="A4651" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B4651" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4651"/>
+  <dimension ref="A1:B4652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46945,6 +46945,16 @@
         <v>0.996</v>
       </c>
     </row>
+    <row r="4652">
+      <c r="A4652" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B4652" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4652"/>
+  <dimension ref="A1:B4653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46955,6 +46955,16 @@
         <v>0.982</v>
       </c>
     </row>
+    <row r="4653">
+      <c r="A4653" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B4653" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4653"/>
+  <dimension ref="A1:B4654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46965,6 +46965,16 @@
         <v>0.982</v>
       </c>
     </row>
+    <row r="4654">
+      <c r="A4654" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B4654" t="n">
+        <v>0.986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4654"/>
+  <dimension ref="A1:B4655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46975,6 +46975,16 @@
         <v>0.986</v>
       </c>
     </row>
+    <row r="4655">
+      <c r="A4655" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B4655" t="n">
+        <v>1.011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4655"/>
+  <dimension ref="A1:B4656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46985,6 +46985,16 @@
         <v>1.011</v>
       </c>
     </row>
+    <row r="4656">
+      <c r="A4656" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B4656" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4656"/>
+  <dimension ref="A1:B4657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46995,6 +46995,16 @@
         <v>1.017</v>
       </c>
     </row>
+    <row r="4657">
+      <c r="A4657" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B4657" t="n">
+        <v>1.036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4657"/>
+  <dimension ref="A1:B4659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47005,6 +47005,26 @@
         <v>1.036</v>
       </c>
     </row>
+    <row r="4658">
+      <c r="A4658" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B4658" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="4659">
+      <c r="A4659" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B4659" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4659"/>
+  <dimension ref="A1:B4660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47025,6 +47025,16 @@
         <v>1.073</v>
       </c>
     </row>
+    <row r="4660">
+      <c r="A4660" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B4660" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4660"/>
+  <dimension ref="A1:B4661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47035,6 +47035,16 @@
         <v>1.073</v>
       </c>
     </row>
+    <row r="4661">
+      <c r="A4661" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B4661" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4661"/>
+  <dimension ref="A1:B4662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47045,6 +47045,16 @@
         <v>1.09</v>
       </c>
     </row>
+    <row r="4662">
+      <c r="A4662" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B4662" t="n">
+        <v>1.098</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4662"/>
+  <dimension ref="A1:B4664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47055,6 +47055,26 @@
         <v>1.098</v>
       </c>
     </row>
+    <row r="4663">
+      <c r="A4663" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B4663" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="4664">
+      <c r="A4664" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B4664" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4664"/>
+  <dimension ref="A1:B4665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47075,6 +47075,16 @@
         <v>1.076</v>
       </c>
     </row>
+    <row r="4665">
+      <c r="A4665" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B4665" t="n">
+        <v>1.069</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4665"/>
+  <dimension ref="A1:B4666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47085,6 +47085,16 @@
         <v>1.069</v>
       </c>
     </row>
+    <row r="4666">
+      <c r="A4666" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B4666" t="n">
+        <v>1.069</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4666"/>
+  <dimension ref="A1:B4667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47095,6 +47095,16 @@
         <v>1.069</v>
       </c>
     </row>
+    <row r="4667">
+      <c r="A4667" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B4667" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4667"/>
+  <dimension ref="A1:B4668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47105,6 +47105,16 @@
         <v>0.983</v>
       </c>
     </row>
+    <row r="4668">
+      <c r="A4668" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B4668" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4668"/>
+  <dimension ref="A1:B4669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47115,6 +47115,16 @@
         <v>0.989</v>
       </c>
     </row>
+    <row r="4669">
+      <c r="A4669" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B4669" t="n">
+        <v>1.012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4669"/>
+  <dimension ref="A1:B4670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47125,6 +47125,16 @@
         <v>1.012</v>
       </c>
     </row>
+    <row r="4670">
+      <c r="A4670" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B4670" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4670"/>
+  <dimension ref="A1:B4671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47135,6 +47135,16 @@
         <v>0.991</v>
       </c>
     </row>
+    <row r="4671">
+      <c r="A4671" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B4671" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4671"/>
+  <dimension ref="A1:B4672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47145,6 +47145,16 @@
         <v>0.985</v>
       </c>
     </row>
+    <row r="4672">
+      <c r="A4672" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B4672" t="n">
+        <v>0.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4672"/>
+  <dimension ref="A1:B4673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47155,6 +47155,16 @@
         <v>0.971</v>
       </c>
     </row>
+    <row r="4673">
+      <c r="A4673" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B4673" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4673"/>
+  <dimension ref="A1:B4674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47165,6 +47165,16 @@
         <v>0.9429999999999999</v>
       </c>
     </row>
+    <row r="4674">
+      <c r="A4674" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B4674" t="n">
+        <v>0.945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4674"/>
+  <dimension ref="A1:B4676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47175,6 +47175,26 @@
         <v>0.945</v>
       </c>
     </row>
+    <row r="4675">
+      <c r="A4675" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B4675" t="n">
+        <v>0.953</v>
+      </c>
+    </row>
+    <row r="4676">
+      <c r="A4676" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B4676" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4676"/>
+  <dimension ref="A1:B4677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47195,6 +47195,16 @@
         <v>0.976</v>
       </c>
     </row>
+    <row r="4677">
+      <c r="A4677" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B4677" t="n">
+        <v>0.969</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4677"/>
+  <dimension ref="A1:B4679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47205,6 +47205,26 @@
         <v>0.969</v>
       </c>
     </row>
+    <row r="4678">
+      <c r="A4678" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B4678" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="4679">
+      <c r="A4679" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B4679" t="n">
+        <v>0.968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4679"/>
+  <dimension ref="A1:B4680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47225,6 +47225,16 @@
         <v>0.968</v>
       </c>
     </row>
+    <row r="4680">
+      <c r="A4680" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B4680" t="n">
+        <v>0.981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4680"/>
+  <dimension ref="A1:B4682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47235,6 +47235,26 @@
         <v>0.981</v>
       </c>
     </row>
+    <row r="4681">
+      <c r="A4681" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B4681" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="4682">
+      <c r="A4682" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4682" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4682"/>
+  <dimension ref="A1:B4683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47255,6 +47255,16 @@
         <v>0.997</v>
       </c>
     </row>
+    <row r="4683">
+      <c r="A4683" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4683" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4683"/>
+  <dimension ref="A1:B4684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47265,6 +47265,16 @@
         <v>1.017</v>
       </c>
     </row>
+    <row r="4684">
+      <c r="A4684" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B4684" t="n">
+        <v>1.009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4684"/>
+  <dimension ref="A1:B4686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47275,6 +47275,26 @@
         <v>1.009</v>
       </c>
     </row>
+    <row r="4685">
+      <c r="A4685" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B4685" t="n">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="4686">
+      <c r="A4686" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B4686" t="n">
+        <v>0.965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4686"/>
+  <dimension ref="A1:B4687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47295,6 +47295,16 @@
         <v>0.965</v>
       </c>
     </row>
+    <row r="4687">
+      <c r="A4687" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B4687" t="n">
+        <v>0.965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4687"/>
+  <dimension ref="A1:B4688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47305,6 +47305,16 @@
         <v>0.965</v>
       </c>
     </row>
+    <row r="4688">
+      <c r="A4688" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B4688" t="n">
+        <v>0.974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4688"/>
+  <dimension ref="A1:B4689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47315,6 +47315,16 @@
         <v>0.974</v>
       </c>
     </row>
+    <row r="4689">
+      <c r="A4689" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B4689" t="n">
+        <v>0.977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4689"/>
+  <dimension ref="A1:B4690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47325,6 +47325,16 @@
         <v>0.977</v>
       </c>
     </row>
+    <row r="4690">
+      <c r="A4690" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B4690" t="n">
+        <v>0.977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4690"/>
+  <dimension ref="A1:B4691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47335,6 +47335,16 @@
         <v>0.977</v>
       </c>
     </row>
+    <row r="4691">
+      <c r="A4691" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B4691" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4691"/>
+  <dimension ref="A1:B4692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47345,6 +47345,16 @@
         <v>0.922</v>
       </c>
     </row>
+    <row r="4692">
+      <c r="A4692" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B4692" t="n">
+        <v>0.913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4692"/>
+  <dimension ref="A1:B4693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47355,6 +47355,16 @@
         <v>0.913</v>
       </c>
     </row>
+    <row r="4693">
+      <c r="A4693" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B4693" t="n">
+        <v>0.913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4693"/>
+  <dimension ref="A1:B4705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47365,6 +47365,126 @@
         <v>0.913</v>
       </c>
     </row>
+    <row r="4694">
+      <c r="A4694" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B4694" t="n">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="4695">
+      <c r="A4695" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B4695" t="n">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="4696">
+      <c r="A4696" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B4696" t="n">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row r="4697">
+      <c r="A4697" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B4697" t="n">
+        <v>0.946</v>
+      </c>
+    </row>
+    <row r="4698">
+      <c r="A4698" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B4698" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="4699">
+      <c r="A4699" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B4699" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="4700">
+      <c r="A4700" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B4700" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="4701">
+      <c r="A4701" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B4701" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="4702">
+      <c r="A4702" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B4702" t="n">
+        <v>0.865</v>
+      </c>
+    </row>
+    <row r="4703">
+      <c r="A4703" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B4703" t="n">
+        <v>0.859</v>
+      </c>
+    </row>
+    <row r="4704">
+      <c r="A4704" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B4704" t="n">
+        <v>0.859</v>
+      </c>
+    </row>
+    <row r="4705">
+      <c r="A4705" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B4705" t="n">
+        <v>0.836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4705"/>
+  <dimension ref="A1:B4716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47485,6 +47485,116 @@
         <v>0.836</v>
       </c>
     </row>
+    <row r="4706">
+      <c r="A4706" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B4706" t="n">
+        <v>0.831</v>
+      </c>
+    </row>
+    <row r="4707">
+      <c r="A4707" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B4707" t="n">
+        <v>0.828</v>
+      </c>
+    </row>
+    <row r="4708">
+      <c r="A4708" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B4708" t="n">
+        <v>0.828</v>
+      </c>
+    </row>
+    <row r="4709">
+      <c r="A4709" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B4709" t="n">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="4710">
+      <c r="A4710" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B4710" t="n">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="4711">
+      <c r="A4711" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B4711" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="4712">
+      <c r="A4712" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B4712" t="n">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="4713">
+      <c r="A4713" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B4713" t="n">
+        <v>0.844</v>
+      </c>
+    </row>
+    <row r="4714">
+      <c r="A4714" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B4714" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4715">
+      <c r="A4715" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B4715" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="4716">
+      <c r="A4716" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B4716" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4716"/>
+  <dimension ref="A1:B4718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47595,6 +47595,26 @@
         <v>0.871</v>
       </c>
     </row>
+    <row r="4717">
+      <c r="A4717" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B4717" t="n">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="4718">
+      <c r="A4718" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B4718" t="n">
+        <v>0.829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4718"/>
+  <dimension ref="A1:B4719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47615,6 +47615,16 @@
         <v>0.829</v>
       </c>
     </row>
+    <row r="4719">
+      <c r="A4719" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B4719" t="n">
+        <v>0.856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4719"/>
+  <dimension ref="A1:B4720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47625,6 +47625,16 @@
         <v>0.856</v>
       </c>
     </row>
+    <row r="4720">
+      <c r="A4720" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B4720" t="n">
+        <v>0.898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4720"/>
+  <dimension ref="A1:B4721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47635,6 +47635,16 @@
         <v>0.898</v>
       </c>
     </row>
+    <row r="4721">
+      <c r="A4721" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B4721" t="n">
+        <v>0.897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4721"/>
+  <dimension ref="A1:B4724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47645,6 +47645,36 @@
         <v>0.897</v>
       </c>
     </row>
+    <row r="4722">
+      <c r="A4722" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B4722" t="n">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="4723">
+      <c r="A4723" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B4723" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="4724">
+      <c r="A4724" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B4724" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4724"/>
+  <dimension ref="A1:B4725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47675,6 +47675,16 @@
         <v>0.871</v>
       </c>
     </row>
+    <row r="4725">
+      <c r="A4725" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B4725" t="n">
+        <v>0.885</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4725"/>
+  <dimension ref="A1:B4727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47685,6 +47685,26 @@
         <v>0.885</v>
       </c>
     </row>
+    <row r="4726">
+      <c r="A4726" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B4726" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4727">
+      <c r="A4727" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B4727" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4727"/>
+  <dimension ref="A1:B4731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47705,6 +47705,46 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="4728">
+      <c r="A4728" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B4728" t="n">
+        <v>0.884</v>
+      </c>
+    </row>
+    <row r="4729">
+      <c r="A4729" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B4729" t="n">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="4730">
+      <c r="A4730" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B4730" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4731">
+      <c r="A4731" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B4731" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4731"/>
+  <dimension ref="A1:B4733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47745,6 +47745,26 @@
         <v>0.87</v>
       </c>
     </row>
+    <row r="4732">
+      <c r="A4732" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B4732" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4733">
+      <c r="A4733" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B4733" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4733"/>
+  <dimension ref="A1:B4734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47765,6 +47765,16 @@
         <v>0.855</v>
       </c>
     </row>
+    <row r="4734">
+      <c r="A4734" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B4734" t="n">
+        <v>0.858</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4734"/>
+  <dimension ref="A1:B4735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47775,6 +47775,16 @@
         <v>0.858</v>
       </c>
     </row>
+    <row r="4735">
+      <c r="A4735" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B4735" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4735"/>
+  <dimension ref="A1:B4738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47785,6 +47785,36 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="4736">
+      <c r="A4736" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B4736" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4737">
+      <c r="A4737" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B4737" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4738">
+      <c r="A4738" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B4738" t="n">
+        <v>0.881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4738"/>
+  <dimension ref="A1:B4742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47815,6 +47815,46 @@
         <v>0.881</v>
       </c>
     </row>
+    <row r="4739">
+      <c r="A4739" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B4739" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="4740">
+      <c r="A4740" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B4740" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="4741">
+      <c r="A4741" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B4741" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="4742">
+      <c r="A4742" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B4742" t="n">
+        <v>0.888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4742"/>
+  <dimension ref="A1:B4745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47855,6 +47855,36 @@
         <v>0.888</v>
       </c>
     </row>
+    <row r="4743">
+      <c r="A4743" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B4743" t="n">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="4744">
+      <c r="A4744" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B4744" t="n">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="4745">
+      <c r="A4745" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B4745" t="n">
+        <v>0.904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz_sth.xlsx
+++ b/data_cripto/btc_mvrvz_sth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4745"/>
+  <dimension ref="A1:B4749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47885,6 +47885,46 @@
         <v>0.904</v>
       </c>
     </row>
+    <row r="4746">
+      <c r="A4746" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B4746" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4747">
+      <c r="A4747" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B4747" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4748">
+      <c r="A4748" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B4748" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4749">
+      <c r="A4749" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B4749" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
